--- a/downloads/data/bnr-cvd-2023-table4.xlsx
+++ b/downloads/data/bnr-cvd-2023-table4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="314" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="357" uniqueCount="23">
   <si>
     <t>CVD Event Type (AMI=2, Stroke=1)</t>
   </si>
@@ -77,6 +77,12 @@
   <si>
     <t>Prepared by Ian Hambleton on 2025-11-19, for the Barbados National Registry</t>
   </si>
+  <si>
+    <t>Table 4. Event Percentage by 10-Year Age Groups</t>
+  </si>
+  <si>
+    <t>Prepared by Ian Hambleton on 2025-11-22, for the Barbados National Registry</t>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +91,1367 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2533">
+  <fonts count="2873">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -10227,7 +11593,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2533">
+  <borders count="2873">
     <border>
       <left/>
       <right/>
@@ -27959,11 +29325,2391 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2533">
+  <cellXfs count="2873">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -38090,6 +41836,1366 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="2532" fillId="0" borderId="2532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2533" fillId="0" borderId="2533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2534" fillId="0" borderId="2534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2535" fillId="0" borderId="2535" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2536" fillId="0" borderId="2536" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2537" fillId="0" borderId="2537" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2538" fillId="0" borderId="2538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2539" fillId="0" borderId="2539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2540" fillId="0" borderId="2540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2541" fillId="0" borderId="2541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2542" fillId="0" borderId="2542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2543" fillId="0" borderId="2543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2544" fillId="0" borderId="2544" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2545" fillId="0" borderId="2545" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2546" fillId="0" borderId="2546" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2547" fillId="0" borderId="2547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2548" fillId="0" borderId="2548" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2549" fillId="0" borderId="2549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2550" fillId="0" borderId="2550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2551" fillId="0" borderId="2551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2552" fillId="0" borderId="2552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2553" fillId="0" borderId="2553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2554" fillId="0" borderId="2554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2555" fillId="0" borderId="2555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2556" fillId="0" borderId="2556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2557" fillId="0" borderId="2557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2558" fillId="0" borderId="2558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2559" fillId="0" borderId="2559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2560" fillId="0" borderId="2560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2561" fillId="0" borderId="2561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2562" fillId="0" borderId="2562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2563" fillId="0" borderId="2563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2564" fillId="0" borderId="2564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2565" fillId="0" borderId="2565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2566" fillId="0" borderId="2566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2567" fillId="0" borderId="2567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2568" fillId="0" borderId="2568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2569" fillId="0" borderId="2569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2570" fillId="0" borderId="2570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2571" fillId="0" borderId="2571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2572" fillId="0" borderId="2572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2573" fillId="0" borderId="2573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2574" fillId="0" borderId="2574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2575" fillId="0" borderId="2575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2576" fillId="0" borderId="2576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2577" fillId="0" borderId="2577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2578" fillId="0" borderId="2578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2579" fillId="0" borderId="2579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2580" fillId="0" borderId="2580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2581" fillId="0" borderId="2581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2582" fillId="0" borderId="2582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2583" fillId="0" borderId="2583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2584" fillId="0" borderId="2584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2585" fillId="0" borderId="2585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2586" fillId="0" borderId="2586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2587" fillId="0" borderId="2587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2588" fillId="0" borderId="2588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2589" fillId="0" borderId="2589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2590" fillId="0" borderId="2590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2591" fillId="0" borderId="2591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2592" fillId="0" borderId="2592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2593" fillId="0" borderId="2593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2594" fillId="0" borderId="2594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2595" fillId="0" borderId="2595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2596" fillId="0" borderId="2596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2597" fillId="0" borderId="2597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2598" fillId="0" borderId="2598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2599" fillId="0" borderId="2599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2600" fillId="0" borderId="2600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2601" fillId="0" borderId="2601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2602" fillId="0" borderId="2602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2603" fillId="0" borderId="2603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2604" fillId="0" borderId="2604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2605" fillId="0" borderId="2605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2606" fillId="0" borderId="2606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2607" fillId="0" borderId="2607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2608" fillId="0" borderId="2608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2609" fillId="0" borderId="2609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2610" fillId="0" borderId="2610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2611" fillId="0" borderId="2611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2612" fillId="0" borderId="2612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2613" fillId="0" borderId="2613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2614" fillId="0" borderId="2614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2615" fillId="0" borderId="2615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2616" fillId="0" borderId="2616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2617" fillId="0" borderId="2617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2618" fillId="0" borderId="2618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2619" fillId="0" borderId="2619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2620" fillId="0" borderId="2620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2621" fillId="0" borderId="2621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2622" fillId="0" borderId="2622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2623" fillId="0" borderId="2623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2624" fillId="0" borderId="2624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2625" fillId="0" borderId="2625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2626" fillId="0" borderId="2626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2627" fillId="0" borderId="2627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2628" fillId="0" borderId="2628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2629" fillId="0" borderId="2629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2630" fillId="0" borderId="2630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2631" fillId="0" borderId="2631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2632" fillId="0" borderId="2632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2633" fillId="0" borderId="2633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2634" fillId="0" borderId="2634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2635" fillId="0" borderId="2635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2636" fillId="0" borderId="2636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2637" fillId="0" borderId="2637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2638" fillId="0" borderId="2638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2639" fillId="0" borderId="2639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2640" fillId="0" borderId="2640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2641" fillId="0" borderId="2641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2642" fillId="0" borderId="2642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2643" fillId="0" borderId="2643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2644" fillId="0" borderId="2644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2645" fillId="0" borderId="2645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2646" fillId="0" borderId="2646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2647" fillId="0" borderId="2647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2648" fillId="0" borderId="2648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2649" fillId="0" borderId="2649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2650" fillId="0" borderId="2650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2651" fillId="0" borderId="2651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2652" fillId="0" borderId="2652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2653" fillId="0" borderId="2653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2654" fillId="0" borderId="2654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2655" fillId="0" borderId="2655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2656" fillId="0" borderId="2656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2657" fillId="0" borderId="2657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2658" fillId="0" borderId="2658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2659" fillId="0" borderId="2659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2660" fillId="0" borderId="2660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2661" fillId="0" borderId="2661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2662" fillId="0" borderId="2662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2663" fillId="0" borderId="2663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2664" fillId="0" borderId="2664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2665" fillId="0" borderId="2665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2666" fillId="0" borderId="2666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2667" fillId="0" borderId="2667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2668" fillId="0" borderId="2668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2669" fillId="0" borderId="2669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2670" fillId="0" borderId="2670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2671" fillId="0" borderId="2671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2672" fillId="0" borderId="2672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2673" fillId="0" borderId="2673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2674" fillId="0" borderId="2674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2675" fillId="0" borderId="2675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2676" fillId="0" borderId="2676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2677" fillId="0" borderId="2677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2678" fillId="0" borderId="2678" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2679" fillId="0" borderId="2679" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2680" fillId="0" borderId="2680" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2681" fillId="0" borderId="2681" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2682" fillId="0" borderId="2682" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2683" fillId="0" borderId="2683" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2684" fillId="0" borderId="2684" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2685" fillId="0" borderId="2685" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2686" fillId="0" borderId="2686" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2687" fillId="0" borderId="2687" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2688" fillId="0" borderId="2688" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2689" fillId="0" borderId="2689" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2690" fillId="0" borderId="2690" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2691" fillId="0" borderId="2691" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2692" fillId="0" borderId="2692" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2693" fillId="0" borderId="2693" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2694" fillId="0" borderId="2694" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2695" fillId="0" borderId="2695" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2696" fillId="0" borderId="2696" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2697" fillId="0" borderId="2697" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2698" fillId="0" borderId="2698" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2699" fillId="0" borderId="2699" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2700" fillId="0" borderId="2700" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2701" fillId="0" borderId="2701" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2702" fillId="0" borderId="2702" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2703" fillId="0" borderId="2703" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2704" fillId="0" borderId="2704" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2705" fillId="0" borderId="2705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2706" fillId="0" borderId="2706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2707" fillId="0" borderId="2707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2708" fillId="0" borderId="2708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2709" fillId="0" borderId="2709" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2710" fillId="0" borderId="2710" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2711" fillId="0" borderId="2711" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2712" fillId="0" borderId="2712" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2713" fillId="0" borderId="2713" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2714" fillId="0" borderId="2714" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2715" fillId="0" borderId="2715" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2716" fillId="0" borderId="2716" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2717" fillId="0" borderId="2717" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2718" fillId="0" borderId="2718" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2719" fillId="0" borderId="2719" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2720" fillId="0" borderId="2720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2721" fillId="0" borderId="2721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2722" fillId="0" borderId="2722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2723" fillId="0" borderId="2723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2724" fillId="0" borderId="2724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2725" fillId="0" borderId="2725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2726" fillId="0" borderId="2726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2727" fillId="0" borderId="2727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2728" fillId="0" borderId="2728" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2729" fillId="0" borderId="2729" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2730" fillId="0" borderId="2730" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2731" fillId="0" borderId="2731" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2732" fillId="0" borderId="2732" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2733" fillId="0" borderId="2733" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2734" fillId="0" borderId="2734" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2735" fillId="0" borderId="2735" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2736" fillId="0" borderId="2736" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2737" fillId="0" borderId="2737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2738" fillId="0" borderId="2738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2739" fillId="0" borderId="2739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2740" fillId="0" borderId="2740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2741" fillId="0" borderId="2741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2742" fillId="0" borderId="2742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2743" fillId="0" borderId="2743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2744" fillId="0" borderId="2744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2745" fillId="0" borderId="2745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2746" fillId="0" borderId="2746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2747" fillId="0" borderId="2747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2748" fillId="0" borderId="2748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2749" fillId="0" borderId="2749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2750" fillId="0" borderId="2750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2751" fillId="0" borderId="2751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2752" fillId="0" borderId="2752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2753" fillId="0" borderId="2753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2754" fillId="0" borderId="2754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2755" fillId="0" borderId="2755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2756" fillId="0" borderId="2756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2757" fillId="0" borderId="2757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2758" fillId="0" borderId="2758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2759" fillId="0" borderId="2759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2760" fillId="0" borderId="2760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2761" fillId="0" borderId="2761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2762" fillId="0" borderId="2762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2763" fillId="0" borderId="2763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2764" fillId="0" borderId="2764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2765" fillId="0" borderId="2765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2766" fillId="0" borderId="2766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2767" fillId="0" borderId="2767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2768" fillId="0" borderId="2768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2769" fillId="0" borderId="2769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2770" fillId="0" borderId="2770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2771" fillId="0" borderId="2771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2772" fillId="0" borderId="2772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2773" fillId="0" borderId="2773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2774" fillId="0" borderId="2774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2775" fillId="0" borderId="2775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2776" fillId="0" borderId="2776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2777" fillId="0" borderId="2777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2778" fillId="0" borderId="2778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2779" fillId="0" borderId="2779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2780" fillId="0" borderId="2780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2781" fillId="0" borderId="2781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2782" fillId="0" borderId="2782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2783" fillId="0" borderId="2783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2784" fillId="0" borderId="2784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2785" fillId="0" borderId="2785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2786" fillId="0" borderId="2786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2787" fillId="0" borderId="2787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2788" fillId="0" borderId="2788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2789" fillId="0" borderId="2789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2790" fillId="0" borderId="2790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2791" fillId="0" borderId="2791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2792" fillId="0" borderId="2792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2793" fillId="0" borderId="2793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2794" fillId="0" borderId="2794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2795" fillId="0" borderId="2795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2796" fillId="0" borderId="2796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2797" fillId="0" borderId="2797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2798" fillId="0" borderId="2798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2799" fillId="0" borderId="2799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2800" fillId="0" borderId="2800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2801" fillId="0" borderId="2801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2802" fillId="0" borderId="2802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2803" fillId="0" borderId="2803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2804" fillId="0" borderId="2804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2805" fillId="0" borderId="2805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2806" fillId="0" borderId="2806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2807" fillId="0" borderId="2807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2808" fillId="0" borderId="2808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2809" fillId="0" borderId="2809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2810" fillId="0" borderId="2810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2811" fillId="0" borderId="2811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2812" fillId="0" borderId="2812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2813" fillId="0" borderId="2813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2814" fillId="0" borderId="2814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2815" fillId="0" borderId="2815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2816" fillId="0" borderId="2816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2817" fillId="0" borderId="2817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2818" fillId="0" borderId="2818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2819" fillId="0" borderId="2819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2820" fillId="0" borderId="2820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2821" fillId="0" borderId="2821" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2822" fillId="0" borderId="2822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2823" fillId="0" borderId="2823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2824" fillId="0" borderId="2824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2825" fillId="0" borderId="2825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2826" fillId="0" borderId="2826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2827" fillId="0" borderId="2827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2828" fillId="0" borderId="2828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2829" fillId="0" borderId="2829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2830" fillId="0" borderId="2830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2831" fillId="0" borderId="2831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2832" fillId="0" borderId="2832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2833" fillId="0" borderId="2833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2834" fillId="0" borderId="2834" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2835" fillId="0" borderId="2835" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2836" fillId="0" borderId="2836" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2837" fillId="0" borderId="2837" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2838" fillId="0" borderId="2838" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2839" fillId="0" borderId="2839" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2840" fillId="0" borderId="2840" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2841" fillId="0" borderId="2841" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2842" fillId="0" borderId="2842" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2843" fillId="0" borderId="2843" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2844" fillId="0" borderId="2844" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2845" fillId="0" borderId="2845" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2846" fillId="0" borderId="2846" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2847" fillId="0" borderId="2847" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2848" fillId="0" borderId="2848" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2849" fillId="0" borderId="2849" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2850" fillId="0" borderId="2850" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2851" fillId="0" borderId="2851" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2852" fillId="0" borderId="2852" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2853" fillId="0" borderId="2853" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2854" fillId="0" borderId="2854" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2855" fillId="0" borderId="2855" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2856" fillId="0" borderId="2856" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2857" fillId="0" borderId="2857" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2858" fillId="0" borderId="2858" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2859" fillId="0" borderId="2859" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2860" fillId="0" borderId="2860" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2861" fillId="0" borderId="2861" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2862" fillId="0" borderId="2862" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2863" fillId="0" borderId="2863" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2864" fillId="0" borderId="2864" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2865" fillId="0" borderId="2865" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2866" fillId="0" borderId="2866" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2867" fillId="0" borderId="2867" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2868" fillId="0" borderId="2868" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2869" fillId="0" borderId="2869" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2870" fillId="0" borderId="2870" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2871" fillId="0" borderId="2871" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2872" fillId="0" borderId="2872" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -38102,415 +43208,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2194"/>
-      <c r="B1" s="2207" t="s">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2534"/>
+      <c r="B2" s="2547" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2208" t="s">
+      <c r="C2" s="2548" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2209" t="s">
+      <c r="D2" s="2549" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2210" t="s">
+      <c r="E2" s="2550" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2211" t="s">
+      <c r="F2" s="2551" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2212" t="s">
+      <c r="G2" s="2552" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2213"/>
-      <c r="B2" s="2217" t="s">
+    <row r="3">
+      <c r="A3" s="2553"/>
+      <c r="B3" s="2557" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2217" t="s">
+      <c r="C3" s="2557" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2217" t="s">
+      <c r="D3" s="2557" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2223" t="s">
+      <c r="E3" s="2563" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2223" t="s">
+      <c r="F3" s="2563" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2223" t="s">
+      <c r="G3" s="2563" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2226"/>
-      <c r="B3" s="2230" t="s">
+    <row r="4">
+      <c r="A4" s="2566"/>
+      <c r="B4" s="2570" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2230" t="s">
+      <c r="C4" s="2570" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2230" t="s">
+      <c r="D4" s="2570" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2236" t="s">
+      <c r="E4" s="2576" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2236" t="s">
+      <c r="F4" s="2576" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2236" t="s">
+      <c r="G4" s="2576" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2239"/>
-      <c r="B4" s="2241" t="s">
+    <row r="5">
+      <c r="A5" s="2579"/>
+      <c r="B5" s="2581" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2243" t="s">
+      <c r="C5" s="2583" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2245" t="s">
+      <c r="D5" s="2585" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2247" t="s">
+      <c r="E5" s="2587" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2249" t="s">
+      <c r="F5" s="2589" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2251" t="s">
+      <c r="G5" s="2591" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2255" t="s">
+    <row r="6">
+      <c r="A6" s="2595" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2256"/>
-      <c r="C5" s="2257"/>
-      <c r="D5" s="2258"/>
-      <c r="E5" s="2259"/>
-      <c r="F5" s="2260"/>
-      <c r="G5" s="2261"/>
+      <c r="B6" s="2596"/>
+      <c r="C6" s="2597"/>
+      <c r="D6" s="2598"/>
+      <c r="E6" s="2599"/>
+      <c r="F6" s="2600"/>
+      <c r="G6" s="2601"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2264" t="s">
+    <row r="7">
+      <c r="A7" s="2604" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2267" t="s">
+    <row r="8">
+      <c r="A8" s="2607" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2270" t="s">
+    <row r="9">
+      <c r="A9" s="2610" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2273">
+      <c r="B9" s="2613">
         <v>2.1551723480224609</v>
       </c>
-      <c r="C8" s="2276">
+      <c r="C9" s="2616">
         <v>2.6406428813934326</v>
       </c>
-      <c r="D8" s="2279">
+      <c r="D9" s="2619">
         <v>2.3902168273925781</v>
       </c>
-      <c r="E8" s="2282">
+      <c r="E9" s="2622">
         <v>1.0560519695281982</v>
       </c>
-      <c r="F8" s="2285">
+      <c r="F9" s="2625">
         <v>2.4584236145019531</v>
       </c>
-      <c r="G8" s="2288">
+      <c r="G9" s="2628">
         <v>1.7980107069015503</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2291" t="s">
+    <row r="10">
+      <c r="A10" s="2631" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2294">
+      <c r="B10" s="2634">
         <v>6.1961202621459961</v>
       </c>
-      <c r="C9" s="2297">
+      <c r="C10" s="2637">
         <v>4.9942593574523926</v>
       </c>
-      <c r="D9" s="2300">
+      <c r="D10" s="2640">
         <v>5.6142301559448242</v>
       </c>
-      <c r="E9" s="2303">
+      <c r="E10" s="2643">
         <v>4.1429734230041504</v>
       </c>
-      <c r="F9" s="2306">
+      <c r="F10" s="2646">
         <v>7.1583514213562012</v>
       </c>
-      <c r="G9" s="2309">
+      <c r="G10" s="2649">
         <v>5.7383322715759277</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2312" t="s">
+    <row r="11">
+      <c r="A11" s="2652" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2315">
+      <c r="B11" s="2655">
         <v>10.237068176269531</v>
       </c>
-      <c r="C10" s="2318">
+      <c r="C11" s="2658">
         <v>15.097589492797852</v>
       </c>
-      <c r="D10" s="2321">
+      <c r="D11" s="2661">
         <v>12.590328216552734</v>
       </c>
-      <c r="E10" s="2324">
+      <c r="E11" s="2664">
         <v>9.3419981002807617</v>
       </c>
-      <c r="F10" s="2327">
+      <c r="F11" s="2667">
         <v>14.89515495300293</v>
       </c>
-      <c r="G10" s="2330">
+      <c r="G11" s="2670">
         <v>12.280031204223633</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2333" t="s">
+    <row r="12">
+      <c r="A12" s="2673" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2336">
+      <c r="B12" s="2676">
         <v>16.487068176269531</v>
       </c>
-      <c r="C11" s="2339">
+      <c r="C12" s="2679">
         <v>27.611940383911133</v>
       </c>
-      <c r="D11" s="2342">
+      <c r="D12" s="2682">
         <v>21.873264312744141</v>
       </c>
-      <c r="E11" s="2345">
+      <c r="E12" s="2685">
         <v>16.328187942504883</v>
       </c>
-      <c r="F11" s="2348">
+      <c r="F12" s="2688">
         <v>26.681127548217773</v>
       </c>
-      <c r="G11" s="2351">
+      <c r="G12" s="2691">
         <v>21.805662155151367</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2354" t="s">
+    <row r="13">
+      <c r="A13" s="2694" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2357">
+      <c r="B13" s="2697">
         <v>22.090517044067383</v>
       </c>
-      <c r="C12" s="2360">
+      <c r="C13" s="2700">
         <v>27.324914932250977</v>
       </c>
-      <c r="D12" s="2363">
+      <c r="D13" s="2703">
         <v>24.624792098999024</v>
       </c>
-      <c r="E12" s="2366">
+      <c r="E13" s="2706">
         <v>20.389926910400391</v>
       </c>
-      <c r="F12" s="2369">
+      <c r="F13" s="2709">
         <v>23.788864135742188</v>
       </c>
-      <c r="G12" s="2372">
+      <c r="G13" s="2712">
         <v>22.188217163085938</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2375" t="s">
+    <row r="14">
+      <c r="A14" s="2715" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2378">
+      <c r="B14" s="2718">
         <v>42.834049224853516</v>
       </c>
-      <c r="C13" s="2381">
+      <c r="C14" s="2721">
         <v>22.330654144287109</v>
       </c>
-      <c r="D13" s="2384">
+      <c r="D14" s="2724">
         <v>32.907173156738281</v>
       </c>
-      <c r="E13" s="2387">
+      <c r="E14" s="2727">
         <v>48.740859985351563</v>
       </c>
-      <c r="F13" s="2390">
+      <c r="F14" s="2730">
         <v>25.018075942993164</v>
       </c>
-      <c r="G13" s="2393">
+      <c r="G14" s="2733">
         <v>36.189746856689453</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2396" t="s">
+    <row r="15">
+      <c r="A15" s="2736" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2399" t="s">
+    <row r="16">
+      <c r="A16" s="2739" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2402" t="s">
+    <row r="17">
+      <c r="A17" s="2742" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2405">
+      <c r="B17" s="2745">
         <v>1.965601921081543</v>
       </c>
-      <c r="C16" s="2408">
+      <c r="C17" s="2748">
         <v>2.0202019214630127</v>
       </c>
-      <c r="D16" s="2411">
+      <c r="D17" s="2751">
         <v>1.992527961730957</v>
       </c>
-      <c r="E16" s="2414">
+      <c r="E17" s="2754">
         <v>1.8726592063903809</v>
       </c>
-      <c r="F16" s="2417">
+      <c r="F17" s="2757">
         <v>1.0101009607315064</v>
       </c>
-      <c r="G16" s="2420">
+      <c r="G17" s="2760">
         <v>1.4184397459030151</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2423" t="s">
+    <row r="18">
+      <c r="A18" s="2763" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2426">
+      <c r="B18" s="2766">
         <v>5.1597051620483398</v>
       </c>
-      <c r="C17" s="2429">
+      <c r="C18" s="2769">
         <v>5.5555553436279297</v>
       </c>
-      <c r="D17" s="2432">
+      <c r="D18" s="2772">
         <v>5.3549189567565918</v>
       </c>
-      <c r="E17" s="2435">
+      <c r="E18" s="2775">
         <v>4.1198501586914063</v>
       </c>
-      <c r="F17" s="2438">
+      <c r="F18" s="2778">
         <v>6.3973064422607422</v>
       </c>
-      <c r="G17" s="2441">
+      <c r="G18" s="2781">
         <v>5.3191490173339844</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2444" t="s">
+    <row r="19">
+      <c r="A19" s="2784" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2447">
+      <c r="B19" s="2787">
         <v>8.8452091217041016</v>
       </c>
-      <c r="C18" s="2450">
+      <c r="C19" s="2790">
         <v>20.202020645141602</v>
       </c>
-      <c r="D18" s="2453">
+      <c r="D19" s="2793">
         <v>14.445828437805176</v>
       </c>
-      <c r="E18" s="2456">
+      <c r="E19" s="2796">
         <v>7.865168571472168</v>
       </c>
-      <c r="F18" s="2459">
+      <c r="F19" s="2799">
         <v>19.528619766235352</v>
       </c>
-      <c r="G18" s="2462">
+      <c r="G19" s="2802">
         <v>14.007092475891113</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2465" t="s">
+    <row r="20">
+      <c r="A20" s="2805" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2468">
+      <c r="B20" s="2808">
         <v>15.47911548614502</v>
       </c>
-      <c r="C19" s="2471">
+      <c r="C20" s="2811">
         <v>23.232322692871094</v>
       </c>
-      <c r="D19" s="2474">
+      <c r="D20" s="2814">
         <v>19.302616119384766</v>
       </c>
-      <c r="E19" s="2477">
+      <c r="E20" s="2817">
         <v>17.977527618408203</v>
       </c>
-      <c r="F19" s="2480">
+      <c r="F20" s="2820">
         <v>25.589225769042969</v>
       </c>
-      <c r="G19" s="2483">
+      <c r="G20" s="2823">
         <v>21.985815048217773</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2486" t="s">
+    <row r="21">
+      <c r="A21" s="2826" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2489">
+      <c r="B21" s="2829">
         <v>28.746929168701172</v>
       </c>
-      <c r="C20" s="2492">
+      <c r="C21" s="2832">
         <v>25</v>
       </c>
-      <c r="D20" s="2495">
+      <c r="D21" s="2835">
         <v>26.899127960205078</v>
       </c>
-      <c r="E20" s="2498">
+      <c r="E21" s="2838">
         <v>20.599250793457031</v>
       </c>
-      <c r="F20" s="2501">
+      <c r="F21" s="2841">
         <v>26.599327087402344</v>
       </c>
-      <c r="G20" s="2504">
+      <c r="G21" s="2844">
         <v>23.758865356445313</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2508" t="s">
+    <row r="22">
+      <c r="A22" s="2848" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2512">
+      <c r="B22" s="2852">
         <v>39.803440093994141</v>
       </c>
-      <c r="C21" s="2516">
+      <c r="C22" s="2856">
         <v>23.989898681640625</v>
       </c>
-      <c r="D21" s="2520">
+      <c r="D22" s="2860">
         <v>32.004981994628906</v>
       </c>
-      <c r="E21" s="2524">
+      <c r="E22" s="2864">
         <v>47.565544128417969</v>
       </c>
-      <c r="F21" s="2528">
+      <c r="F22" s="2868">
         <v>20.875421524047852</v>
       </c>
-      <c r="G21" s="2532">
+      <c r="G22" s="2872">
         <v>33.510639190673828</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>20</v>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
 </worksheet>
 </file>